--- a/Code/Results/Cases/Case_0_111/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_111/res_line/pl_mw.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.05490777311257489</v>
+        <v>0.1318163244425179</v>
       </c>
       <c r="D2">
-        <v>0.1033205587340262</v>
+        <v>0.07493699281090471</v>
       </c>
       <c r="E2">
-        <v>0.1099223801602776</v>
+        <v>0.1184991365948278</v>
       </c>
       <c r="F2">
-        <v>3.952778987996112</v>
+        <v>2.14739650687585</v>
       </c>
       <c r="G2">
-        <v>4.561243822490553</v>
+        <v>2.220330774798867</v>
       </c>
       <c r="H2">
-        <v>2.261519837534706</v>
+        <v>1.617759182396071</v>
       </c>
       <c r="I2">
-        <v>3.329309295653189</v>
+        <v>1.971795632940967</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2422674968963037</v>
+        <v>0.1863415131911523</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>7.66312166460591</v>
+        <v>2.873581687696401</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.05240258082249483</v>
+        <v>0.1321083045426263</v>
       </c>
       <c r="D3">
-        <v>0.08958475501597718</v>
+        <v>0.07256598175449369</v>
       </c>
       <c r="E3">
-        <v>0.09744191520182355</v>
+        <v>0.1166775667030038</v>
       </c>
       <c r="F3">
-        <v>3.408692100088984</v>
+        <v>2.03681669932277</v>
       </c>
       <c r="G3">
-        <v>3.921724616311423</v>
+        <v>2.086944517262197</v>
       </c>
       <c r="H3">
-        <v>1.966992608946782</v>
+        <v>1.563157948875727</v>
       </c>
       <c r="I3">
-        <v>2.877654224825889</v>
+        <v>1.882514759531929</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2111742910484793</v>
+        <v>0.1808578132491476</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>6.74968365211538</v>
+        <v>2.562605684679681</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.05097499970146657</v>
+        <v>0.1323379769755633</v>
       </c>
       <c r="D4">
-        <v>0.0815166898398374</v>
+        <v>0.0711647553680308</v>
       </c>
       <c r="E4">
-        <v>0.09009990364465637</v>
+        <v>0.1156327084657427</v>
       </c>
       <c r="F4">
-        <v>3.086050247460946</v>
+        <v>1.970476765595805</v>
       </c>
       <c r="G4">
-        <v>3.542320519219572</v>
+        <v>2.006664097394292</v>
       </c>
       <c r="H4">
-        <v>1.792803458186626</v>
+        <v>1.530759656186461</v>
       </c>
       <c r="I4">
-        <v>2.610077947351002</v>
+        <v>1.829116384459283</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1928190221223431</v>
+        <v>0.177621056856033</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>6.187481969423061</v>
+        <v>2.371325805375818</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.05041843973257443</v>
+        <v>0.1324442345074388</v>
       </c>
       <c r="D5">
-        <v>0.07830675826147626</v>
+        <v>0.07060729053340964</v>
       </c>
       <c r="E5">
-        <v>0.08717774526256861</v>
+        <v>0.115225296598652</v>
       </c>
       <c r="F5">
-        <v>2.957006081444263</v>
+        <v>1.943828266499054</v>
       </c>
       <c r="G5">
-        <v>3.390526899446826</v>
+        <v>1.974349319995582</v>
       </c>
       <c r="H5">
-        <v>1.723246859370761</v>
+        <v>1.517837414266324</v>
       </c>
       <c r="I5">
-        <v>2.503117875908018</v>
+        <v>1.807708437273959</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1854972620185436</v>
+        <v>0.1763344579141659</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>5.958052239810286</v>
+        <v>2.293303068605894</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.05032747452997199</v>
+        <v>0.1324626431518823</v>
       </c>
       <c r="D6">
-        <v>0.07777807995988439</v>
+        <v>0.07051553691058388</v>
       </c>
       <c r="E6">
-        <v>0.08669644403985188</v>
+        <v>0.1151587523329951</v>
       </c>
       <c r="F6">
-        <v>2.935713723041829</v>
+        <v>1.939426421979988</v>
       </c>
       <c r="G6">
-        <v>3.365477940723309</v>
+        <v>1.969007440302136</v>
       </c>
       <c r="H6">
-        <v>1.711776651386145</v>
+        <v>1.515708527668693</v>
       </c>
       <c r="I6">
-        <v>2.485472932959738</v>
+        <v>1.804174803194385</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1842903221247383</v>
+        <v>0.176122766289744</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>5.919936152110608</v>
+        <v>2.2803432614038</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.05096739496281799</v>
+        <v>0.1323393587342636</v>
       </c>
       <c r="D7">
-        <v>0.08147310147496967</v>
+        <v>0.07115718258791048</v>
       </c>
       <c r="E7">
-        <v>0.09006022532196312</v>
+        <v>0.1156271397298738</v>
       </c>
       <c r="F7">
-        <v>3.084300591456071</v>
+        <v>1.970115821120544</v>
       </c>
       <c r="G7">
-        <v>3.540262608120685</v>
+        <v>2.006226678036995</v>
       </c>
       <c r="H7">
-        <v>1.791859917126715</v>
+        <v>1.530584251319738</v>
       </c>
       <c r="I7">
-        <v>2.608627480389572</v>
+        <v>1.828826249198585</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1927196708991019</v>
+        <v>0.1776035745791589</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>6.184389112219776</v>
+        <v>2.370273851392596</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.05401932974783108</v>
+        <v>0.1319065342164976</v>
       </c>
       <c r="D8">
-        <v>0.09849937099587436</v>
+        <v>0.07410802949213036</v>
       </c>
       <c r="E8">
-        <v>0.1055453979119392</v>
+        <v>0.1178557056105518</v>
       </c>
       <c r="F8">
-        <v>3.762521690147224</v>
+        <v>2.108941954639647</v>
       </c>
       <c r="G8">
-        <v>4.33764944286213</v>
+        <v>2.173998797862311</v>
       </c>
       <c r="H8">
-        <v>2.158427329991412</v>
+        <v>1.5986968533891</v>
       </c>
       <c r="I8">
-        <v>3.171317303303667</v>
+        <v>1.94071379485068</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2313763612195316</v>
+        <v>0.1844234845839736</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>7.348453399592813</v>
+        <v>2.766433886209882</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.06102266278261226</v>
+        <v>0.1314581354307478</v>
       </c>
       <c r="D9">
-        <v>0.1355598817800967</v>
+        <v>0.0803363272250408</v>
       </c>
       <c r="E9">
-        <v>0.1390493394156884</v>
+        <v>0.1228161569043102</v>
       </c>
       <c r="F9">
-        <v>5.206854702896322</v>
+        <v>2.393812729005703</v>
       </c>
       <c r="G9">
-        <v>6.034513976464041</v>
+        <v>2.516187907862218</v>
       </c>
       <c r="H9">
-        <v>2.943293182081447</v>
+        <v>1.741358681240058</v>
       </c>
       <c r="I9">
-        <v>4.372000710564947</v>
+        <v>2.171631052034115</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3144753410724803</v>
+        <v>0.198847723056204</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>9.620230281550675</v>
+        <v>3.540180268007646</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.06703096620449145</v>
+        <v>0.131373666256188</v>
       </c>
       <c r="D10">
-        <v>0.1663800025039421</v>
+        <v>0.08519417982111577</v>
       </c>
       <c r="E10">
-        <v>0.1665977652244095</v>
+        <v>0.1268298777829955</v>
       </c>
       <c r="F10">
-        <v>6.378617921487802</v>
+        <v>2.611229275406941</v>
       </c>
       <c r="G10">
-        <v>7.410780399705345</v>
+        <v>2.776138822976918</v>
       </c>
       <c r="H10">
-        <v>3.583122779026723</v>
+        <v>1.851939957587604</v>
       </c>
       <c r="I10">
-        <v>5.347957517957411</v>
+        <v>2.348650619898422</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3824908877067656</v>
+        <v>0.2101106321087798</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.28258838837513</v>
+        <v>4.10623028343673</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.07002371755045544</v>
+        <v>0.1313886564268358</v>
       </c>
       <c r="D11">
-        <v>0.1815961649500508</v>
+        <v>0.08746820656500631</v>
       </c>
       <c r="E11">
-        <v>0.1800732998202079</v>
+        <v>0.1287381493571544</v>
       </c>
       <c r="F11">
-        <v>6.947981599596403</v>
+        <v>2.71199586146767</v>
       </c>
       <c r="G11">
-        <v>8.079559943801655</v>
+        <v>2.896365912390365</v>
       </c>
       <c r="H11">
-        <v>3.894813817648242</v>
+        <v>1.903549187442422</v>
       </c>
       <c r="I11">
-        <v>5.822691222943206</v>
+        <v>2.430859379207675</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.415702010641894</v>
+        <v>0.2153845554648939</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.03742316731751</v>
+        <v>4.363110593465422</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.07120229760791119</v>
+        <v>0.1314020319691309</v>
       </c>
       <c r="D12">
-        <v>0.1875773942541912</v>
+        <v>0.08833877651731825</v>
       </c>
       <c r="E12">
-        <v>0.185345999127172</v>
+        <v>0.1294727822322486</v>
       </c>
       <c r="F12">
-        <v>7.170179492546993</v>
+        <v>2.750428839540348</v>
       </c>
       <c r="G12">
-        <v>8.340576975488091</v>
+        <v>2.942185579605109</v>
       </c>
       <c r="H12">
-        <v>4.016580609532525</v>
+        <v>1.923283938611632</v>
       </c>
       <c r="I12">
-        <v>6.008044251792143</v>
+        <v>2.462237726719025</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4286894299958703</v>
+        <v>0.2174037231214214</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.32306348037548</v>
+        <v>4.460285735714251</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.07094630502434285</v>
+        <v>0.1313988085885285</v>
       </c>
       <c r="D13">
-        <v>0.1862785784636287</v>
+        <v>0.08815086007554385</v>
       </c>
       <c r="E13">
-        <v>0.1842022318602616</v>
+        <v>0.1293140290502137</v>
       </c>
       <c r="F13">
-        <v>7.122006116868334</v>
+        <v>2.742139272274102</v>
       </c>
       <c r="G13">
-        <v>8.283986230998153</v>
+        <v>2.93230435937727</v>
       </c>
       <c r="H13">
-        <v>3.990175219717116</v>
+        <v>1.919025130824764</v>
       </c>
       <c r="I13">
-        <v>5.96785501293877</v>
+        <v>2.455468728007446</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4258724722833023</v>
+        <v>0.2169678718059487</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.26155457991888</v>
+        <v>4.439361943450422</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.07011971912165649</v>
+        <v>0.1313896024319234</v>
       </c>
       <c r="D14">
-        <v>0.1820835314024833</v>
+        <v>0.08753963830743317</v>
       </c>
       <c r="E14">
-        <v>0.1805034559517651</v>
+        <v>0.1287983463696989</v>
       </c>
       <c r="F14">
-        <v>6.966120649087998</v>
+        <v>2.71515221639828</v>
       </c>
       <c r="G14">
-        <v>8.100867456958895</v>
+        <v>2.900129617459527</v>
       </c>
       <c r="H14">
-        <v>3.904751598947541</v>
+        <v>1.905168918343975</v>
       </c>
       <c r="I14">
-        <v>5.837820692692731</v>
+        <v>2.433435896936317</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4167616865163808</v>
+        <v>0.2155502292710594</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.06092695796559</v>
+        <v>4.371107314139522</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.06961958185726758</v>
+        <v>0.1313849665994837</v>
       </c>
       <c r="D15">
-        <v>0.1795441243186531</v>
+        <v>0.08716648397576421</v>
       </c>
       <c r="E15">
-        <v>0.1782611330493893</v>
+        <v>0.1284840450033826</v>
       </c>
       <c r="F15">
-        <v>6.871541782451828</v>
+        <v>2.698657870953383</v>
       </c>
       <c r="G15">
-        <v>7.989768848610993</v>
+        <v>2.880459975010581</v>
       </c>
       <c r="H15">
-        <v>3.852940149273422</v>
+        <v>1.896706634629652</v>
       </c>
       <c r="I15">
-        <v>5.758937552028158</v>
+        <v>2.41997258242634</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4112375080645734</v>
+        <v>0.2146847662822466</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.93801081193845</v>
+        <v>4.329286057409945</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.06684124096331345</v>
+        <v>0.1313737629808287</v>
       </c>
       <c r="D16">
-        <v>0.1654133970967706</v>
+        <v>0.08504687654055942</v>
       </c>
       <c r="E16">
-        <v>0.1657388108333784</v>
+        <v>0.1267068397392741</v>
       </c>
       <c r="F16">
-        <v>6.342248522770376</v>
+        <v>2.604682019297172</v>
       </c>
       <c r="G16">
-        <v>7.36806264171662</v>
+        <v>2.768322137877874</v>
       </c>
       <c r="H16">
-        <v>3.563229387079048</v>
+        <v>1.848593757447588</v>
       </c>
       <c r="I16">
-        <v>5.317643748655712</v>
+        <v>2.343312420629076</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3803728801890429</v>
+        <v>0.2097690306656119</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.23323027560713</v>
+        <v>4.089429168003562</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.06520835336736752</v>
+        <v>0.1313805833460862</v>
       </c>
       <c r="D17">
-        <v>0.1570806254973149</v>
+        <v>0.08376315395827305</v>
       </c>
       <c r="E17">
-        <v>0.1583200499216026</v>
+        <v>0.1256378024306883</v>
       </c>
       <c r="F17">
-        <v>6.027713704394358</v>
+        <v>2.547512892194845</v>
       </c>
       <c r="G17">
-        <v>6.998631552417862</v>
+        <v>2.700040740622342</v>
       </c>
       <c r="H17">
-        <v>3.391271722490444</v>
+        <v>1.81941501844409</v>
       </c>
       <c r="I17">
-        <v>5.055536505698541</v>
+        <v>2.296718729053538</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3620734546629762</v>
+        <v>0.2067921978942309</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.80051555282938</v>
+        <v>3.94211849063862</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06429301165048429</v>
+        <v>0.1313895328188295</v>
       </c>
       <c r="D18">
-        <v>0.1523969342162701</v>
+        <v>0.08303081680871571</v>
       </c>
       <c r="E18">
-        <v>0.1541393106883362</v>
+        <v>0.125030667322676</v>
       </c>
       <c r="F18">
-        <v>5.850120827416902</v>
+        <v>2.514805620256681</v>
       </c>
       <c r="G18">
-        <v>6.790046343232234</v>
+        <v>2.660952385379346</v>
       </c>
       <c r="H18">
-        <v>3.294251907474575</v>
+        <v>1.80275480527331</v>
       </c>
       <c r="I18">
-        <v>4.907590926895153</v>
+        <v>2.270077198096743</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3517556585048283</v>
+        <v>0.2050941298816582</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.55149949033279</v>
+        <v>3.857331695637754</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06398697832216982</v>
+        <v>0.1313934257489962</v>
       </c>
       <c r="D19">
-        <v>0.1508286210415264</v>
+        <v>0.08278388846079565</v>
       </c>
       <c r="E19">
-        <v>0.1527377126851945</v>
+        <v>0.1248264274964477</v>
       </c>
       <c r="F19">
-        <v>5.79052491764142</v>
+        <v>2.503761328198323</v>
       </c>
       <c r="G19">
-        <v>6.720050338530939</v>
+        <v>2.647749312344217</v>
       </c>
       <c r="H19">
-        <v>3.261706252701515</v>
+        <v>1.797134891359406</v>
       </c>
       <c r="I19">
-        <v>4.857951479467374</v>
+        <v>2.261083781789097</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3482956485642035</v>
+        <v>0.2045216068815421</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.46716465870099</v>
+        <v>3.828614786364199</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.06537965712377058</v>
+        <v>0.1313793369484699</v>
       </c>
       <c r="D20">
-        <v>0.1579560712495578</v>
+        <v>0.08389918317325851</v>
       </c>
       <c r="E20">
-        <v>0.1591006352327184</v>
+        <v>0.1257508003500547</v>
       </c>
       <c r="F20">
-        <v>6.060844158548605</v>
+        <v>2.553580491914317</v>
       </c>
       <c r="G20">
-        <v>7.037543890155973</v>
+        <v>2.707290174009074</v>
       </c>
       <c r="H20">
-        <v>3.409376810802428</v>
+        <v>1.822508426783827</v>
       </c>
       <c r="I20">
-        <v>5.083139855111057</v>
+        <v>2.301662320176661</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3639994366787533</v>
+        <v>0.2071076216461449</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.84659223998074</v>
+        <v>3.95780600327754</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.07036120417967595</v>
+        <v>0.1313920974015872</v>
       </c>
       <c r="D21">
-        <v>0.1833093242933046</v>
+        <v>0.087718910842284</v>
       </c>
       <c r="E21">
-        <v>0.181584949092688</v>
+        <v>0.1289494875663806</v>
       </c>
       <c r="F21">
-        <v>7.011716292170462</v>
+        <v>2.723071452625533</v>
       </c>
       <c r="G21">
-        <v>8.154427978663364</v>
+        <v>2.909572118790948</v>
       </c>
       <c r="H21">
-        <v>3.929733996234461</v>
+        <v>1.909233597299249</v>
       </c>
       <c r="I21">
-        <v>5.875852624601237</v>
+        <v>2.4399007043246</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4194257976128029</v>
+        <v>0.2159660234533618</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.11986155709377</v>
+        <v>4.391158149571083</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.07388631121766309</v>
+        <v>0.131445322553823</v>
       </c>
       <c r="D22">
-        <v>0.2011897847977764</v>
+        <v>0.09027048411050487</v>
       </c>
       <c r="E22">
-        <v>0.1972928140959738</v>
+        <v>0.1311101069873573</v>
       </c>
       <c r="F22">
-        <v>7.672526813305439</v>
+        <v>2.835449054683608</v>
       </c>
       <c r="G22">
-        <v>8.930746378119636</v>
+        <v>3.043482725880779</v>
       </c>
       <c r="H22">
-        <v>4.292121647396925</v>
+        <v>1.967031277234753</v>
       </c>
       <c r="I22">
-        <v>6.427262653467494</v>
+        <v>2.531693937023761</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.4581042145510708</v>
+        <v>0.2218842146923095</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.95085643057945</v>
+        <v>4.67379181795809</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.07197701838374826</v>
+        <v>0.1314128019892706</v>
       </c>
       <c r="D23">
-        <v>0.1915072339546526</v>
+        <v>0.08890354055613159</v>
       </c>
       <c r="E23">
-        <v>0.1888026380908485</v>
+        <v>0.129950475753553</v>
       </c>
       <c r="F23">
-        <v>7.315680278407171</v>
+        <v>2.775321754751843</v>
       </c>
       <c r="G23">
-        <v>8.511505665005814</v>
+        <v>2.971853034441551</v>
       </c>
       <c r="H23">
-        <v>4.096353749592026</v>
+        <v>1.936080023239697</v>
       </c>
       <c r="I23">
-        <v>6.129443334606208</v>
+        <v>2.482567838426519</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.4372017483080839</v>
+        <v>0.2187136442774289</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.50744471934257</v>
+        <v>4.523002190001307</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.06530213829701381</v>
+        <v>0.1313798847847423</v>
       </c>
       <c r="D24">
-        <v>0.1575599525302067</v>
+        <v>0.08383766665208725</v>
       </c>
       <c r="E24">
-        <v>0.1587474721536708</v>
+        <v>0.125699690739598</v>
       </c>
       <c r="F24">
-        <v>6.045855894551778</v>
+        <v>2.550836832179698</v>
       </c>
       <c r="G24">
-        <v>7.019939884746009</v>
+        <v>2.704012183990926</v>
       </c>
       <c r="H24">
-        <v>3.401185821375066</v>
+        <v>1.821109538856319</v>
       </c>
       <c r="I24">
-        <v>5.070651918750229</v>
+        <v>2.299426868926901</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3631280746279373</v>
+        <v>0.2069649770088091</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.82576172529127</v>
+        <v>3.950713976768498</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.05899695763567081</v>
+        <v>0.1315364887495889</v>
       </c>
       <c r="D25">
-        <v>0.1250190577709844</v>
+        <v>0.07860283156433923</v>
       </c>
       <c r="E25">
-        <v>0.1295569656716076</v>
+        <v>0.1214100718260696</v>
       </c>
       <c r="F25">
-        <v>4.800164514386552</v>
+        <v>2.315352257043571</v>
       </c>
       <c r="G25">
-        <v>5.556812012974206</v>
+        <v>2.422153262617257</v>
       </c>
       <c r="H25">
-        <v>2.721813561658678</v>
+        <v>1.70176852843656</v>
       </c>
       <c r="I25">
-        <v>4.033634984873316</v>
+        <v>2.107894272092096</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2909855187690624</v>
+        <v>0.1948305746392549</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>9.006838561192296</v>
+        <v>3.331249627311138</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_111/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_111/res_line/pl_mw.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1318163244425179</v>
+        <v>0.05490777311228356</v>
       </c>
       <c r="D2">
-        <v>0.07493699281090471</v>
+        <v>0.1033205587340404</v>
       </c>
       <c r="E2">
-        <v>0.1184991365948278</v>
+        <v>0.1099223801602562</v>
       </c>
       <c r="F2">
-        <v>2.14739650687585</v>
+        <v>3.952778987996169</v>
       </c>
       <c r="G2">
-        <v>2.220330774798867</v>
+        <v>4.56124382249061</v>
       </c>
       <c r="H2">
-        <v>1.617759182396071</v>
+        <v>2.261519837534763</v>
       </c>
       <c r="I2">
-        <v>1.971795632940967</v>
+        <v>3.329309295653161</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1863415131911523</v>
+        <v>0.2422674968963321</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.873581687696401</v>
+        <v>7.66312166460591</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1321083045426263</v>
+        <v>0.05240258082270799</v>
       </c>
       <c r="D3">
-        <v>0.07256598175449369</v>
+        <v>0.08958475501597718</v>
       </c>
       <c r="E3">
-        <v>0.1166775667030038</v>
+        <v>0.09744191520183421</v>
       </c>
       <c r="F3">
-        <v>2.03681669932277</v>
+        <v>3.408692100088956</v>
       </c>
       <c r="G3">
-        <v>2.086944517262197</v>
+        <v>3.921724616311451</v>
       </c>
       <c r="H3">
-        <v>1.563157948875727</v>
+        <v>1.966992608946811</v>
       </c>
       <c r="I3">
-        <v>1.882514759531929</v>
+        <v>2.877654224825889</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1808578132491476</v>
+        <v>0.2111742910484082</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.562605684679681</v>
+        <v>6.749683652115209</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1323379769755633</v>
+        <v>0.0509749997015092</v>
       </c>
       <c r="D4">
-        <v>0.0711647553680308</v>
+        <v>0.08151668983995108</v>
       </c>
       <c r="E4">
-        <v>0.1156327084657427</v>
+        <v>0.09009990364465281</v>
       </c>
       <c r="F4">
-        <v>1.970476765595805</v>
+        <v>3.086050247460918</v>
       </c>
       <c r="G4">
-        <v>2.006664097394292</v>
+        <v>3.542320519219487</v>
       </c>
       <c r="H4">
-        <v>1.530759656186461</v>
+        <v>1.792803458186739</v>
       </c>
       <c r="I4">
-        <v>1.829116384459283</v>
+        <v>2.610077947351002</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.177621056856033</v>
+        <v>0.1928190221223645</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.371325805375818</v>
+        <v>6.187481969422947</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1324442345074388</v>
+        <v>0.05041843973252469</v>
       </c>
       <c r="D5">
-        <v>0.07060729053340964</v>
+        <v>0.07830675826158995</v>
       </c>
       <c r="E5">
-        <v>0.115225296598652</v>
+        <v>0.087177745262629</v>
       </c>
       <c r="F5">
-        <v>1.943828266499054</v>
+        <v>2.957006081444234</v>
       </c>
       <c r="G5">
-        <v>1.974349319995582</v>
+        <v>3.390526899446797</v>
       </c>
       <c r="H5">
-        <v>1.517837414266324</v>
+        <v>1.723246859370789</v>
       </c>
       <c r="I5">
-        <v>1.807708437273959</v>
+        <v>2.503117875907989</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1763344579141659</v>
+        <v>0.1854972620184867</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.293303068605894</v>
+        <v>5.958052239810399</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1324626431518823</v>
+        <v>0.0503274745297162</v>
       </c>
       <c r="D6">
-        <v>0.07051553691058388</v>
+        <v>0.07777807995977781</v>
       </c>
       <c r="E6">
-        <v>0.1151587523329951</v>
+        <v>0.08669644403985544</v>
       </c>
       <c r="F6">
-        <v>1.939426421979988</v>
+        <v>2.935713723041829</v>
       </c>
       <c r="G6">
-        <v>1.969007440302136</v>
+        <v>3.365477940723338</v>
       </c>
       <c r="H6">
-        <v>1.515708527668693</v>
+        <v>1.711776651386174</v>
       </c>
       <c r="I6">
-        <v>1.804174803194385</v>
+        <v>2.485472932959738</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.176122766289744</v>
+        <v>0.1842903221248449</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.2803432614038</v>
+        <v>5.919936152110608</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1323393587342636</v>
+        <v>0.05096739496258351</v>
       </c>
       <c r="D7">
-        <v>0.07115718258791048</v>
+        <v>0.08147310147489151</v>
       </c>
       <c r="E7">
-        <v>0.1156271397298738</v>
+        <v>0.09006022532203417</v>
       </c>
       <c r="F7">
-        <v>1.970115821120544</v>
+        <v>3.084300591456099</v>
       </c>
       <c r="G7">
-        <v>2.006226678036995</v>
+        <v>3.540262608120599</v>
       </c>
       <c r="H7">
-        <v>1.530584251319738</v>
+        <v>1.791859917126857</v>
       </c>
       <c r="I7">
-        <v>1.828826249198585</v>
+        <v>2.608627480389572</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1776035745791589</v>
+        <v>0.1927196708990877</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.370273851392596</v>
+        <v>6.184389112219662</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1319065342164976</v>
+        <v>0.05401932974754686</v>
       </c>
       <c r="D8">
-        <v>0.07410802949213036</v>
+        <v>0.09849937099578199</v>
       </c>
       <c r="E8">
-        <v>0.1178557056105518</v>
+        <v>0.1055453979119108</v>
       </c>
       <c r="F8">
-        <v>2.108941954639647</v>
+        <v>3.762521690147224</v>
       </c>
       <c r="G8">
-        <v>2.173998797862311</v>
+        <v>4.337649442862102</v>
       </c>
       <c r="H8">
-        <v>1.5986968533891</v>
+        <v>2.158427329991412</v>
       </c>
       <c r="I8">
-        <v>1.94071379485068</v>
+        <v>3.171317303303681</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1844234845839736</v>
+        <v>0.2313763612196453</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.766433886209882</v>
+        <v>7.348453399592699</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1314581354307478</v>
+        <v>0.06102266278261226</v>
       </c>
       <c r="D9">
-        <v>0.0803363272250408</v>
+        <v>0.1355598817800967</v>
       </c>
       <c r="E9">
-        <v>0.1228161569043102</v>
+        <v>0.139049339415692</v>
       </c>
       <c r="F9">
-        <v>2.393812729005703</v>
+        <v>5.206854702896294</v>
       </c>
       <c r="G9">
-        <v>2.516187907862218</v>
+        <v>6.034513976464154</v>
       </c>
       <c r="H9">
-        <v>1.741358681240058</v>
+        <v>2.943293182081391</v>
       </c>
       <c r="I9">
-        <v>2.171631052034115</v>
+        <v>4.372000710564919</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.198847723056204</v>
+        <v>0.314475341072594</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>3.540180268007646</v>
+        <v>9.620230281550619</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.131373666256188</v>
+        <v>0.06703096620433513</v>
       </c>
       <c r="D10">
-        <v>0.08519417982111577</v>
+        <v>0.1663800025035727</v>
       </c>
       <c r="E10">
-        <v>0.1268298777829955</v>
+        <v>0.1665977652243598</v>
       </c>
       <c r="F10">
-        <v>2.611229275406941</v>
+        <v>6.378617921487887</v>
       </c>
       <c r="G10">
-        <v>2.776138822976918</v>
+        <v>7.410780399705459</v>
       </c>
       <c r="H10">
-        <v>1.851939957587604</v>
+        <v>3.58312277902678</v>
       </c>
       <c r="I10">
-        <v>2.348650619898422</v>
+        <v>5.347957517957468</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2101106321087798</v>
+        <v>0.3824908877067514</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>4.10623028343673</v>
+        <v>11.28258838837525</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1313886564268358</v>
+        <v>0.07002371755044834</v>
       </c>
       <c r="D11">
-        <v>0.08746820656500631</v>
+        <v>0.1815961649502071</v>
       </c>
       <c r="E11">
-        <v>0.1287381493571544</v>
+        <v>0.1800732998202079</v>
       </c>
       <c r="F11">
-        <v>2.71199586146767</v>
+        <v>6.947981599596432</v>
       </c>
       <c r="G11">
-        <v>2.896365912390365</v>
+        <v>8.079559943801769</v>
       </c>
       <c r="H11">
-        <v>1.903549187442422</v>
+        <v>3.894813817648298</v>
       </c>
       <c r="I11">
-        <v>2.430859379207675</v>
+        <v>5.822691222943234</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2153845554648939</v>
+        <v>0.4157020106417804</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>4.363110593465422</v>
+        <v>12.03742316731768</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1314020319691309</v>
+        <v>0.07120229760733565</v>
       </c>
       <c r="D12">
-        <v>0.08833877651731825</v>
+        <v>0.1875773942540349</v>
       </c>
       <c r="E12">
-        <v>0.1294727822322486</v>
+        <v>0.1853459991271862</v>
       </c>
       <c r="F12">
-        <v>2.750428839540348</v>
+        <v>7.170179492546993</v>
       </c>
       <c r="G12">
-        <v>2.942185579605109</v>
+        <v>8.34057697548792</v>
       </c>
       <c r="H12">
-        <v>1.923283938611632</v>
+        <v>4.016580609532468</v>
       </c>
       <c r="I12">
-        <v>2.462237726719025</v>
+        <v>6.008044251792114</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2174037231214214</v>
+        <v>0.4286894299955577</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>4.460285735714251</v>
+        <v>12.32306348037548</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1313988085885285</v>
+        <v>0.07094630502437127</v>
       </c>
       <c r="D13">
-        <v>0.08815086007554385</v>
+        <v>0.1862785784638419</v>
       </c>
       <c r="E13">
-        <v>0.1293140290502137</v>
+        <v>0.184202231860219</v>
       </c>
       <c r="F13">
-        <v>2.742139272274102</v>
+        <v>7.122006116868278</v>
       </c>
       <c r="G13">
-        <v>2.93230435937727</v>
+        <v>8.283986230998266</v>
       </c>
       <c r="H13">
-        <v>1.919025130824764</v>
+        <v>3.990175219717116</v>
       </c>
       <c r="I13">
-        <v>2.455468728007446</v>
+        <v>5.967855012938713</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2169678718059487</v>
+        <v>0.4258724722833591</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>4.439361943450422</v>
+        <v>12.26155457991871</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1313896024319234</v>
+        <v>0.07011971912202597</v>
       </c>
       <c r="D14">
-        <v>0.08753963830743317</v>
+        <v>0.1820835314023128</v>
       </c>
       <c r="E14">
-        <v>0.1287983463696989</v>
+        <v>0.1805034559517651</v>
       </c>
       <c r="F14">
-        <v>2.71515221639828</v>
+        <v>6.966120649087969</v>
       </c>
       <c r="G14">
-        <v>2.900129617459527</v>
+        <v>8.100867456958952</v>
       </c>
       <c r="H14">
-        <v>1.905168918343975</v>
+        <v>3.904751598947541</v>
       </c>
       <c r="I14">
-        <v>2.433435896936317</v>
+        <v>5.837820692692759</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2155502292710594</v>
+        <v>0.4167616865164945</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>4.371107314139522</v>
+        <v>12.06092695796553</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1313849665994837</v>
+        <v>0.06961958185655703</v>
       </c>
       <c r="D15">
-        <v>0.08716648397576421</v>
+        <v>0.1795441243186389</v>
       </c>
       <c r="E15">
-        <v>0.1284840450033826</v>
+        <v>0.1782611330493395</v>
       </c>
       <c r="F15">
-        <v>2.698657870953383</v>
+        <v>6.8715417824518</v>
       </c>
       <c r="G15">
-        <v>2.880459975010581</v>
+        <v>7.98976884861105</v>
       </c>
       <c r="H15">
-        <v>1.896706634629652</v>
+        <v>3.852940149273309</v>
       </c>
       <c r="I15">
-        <v>2.41997258242634</v>
+        <v>5.758937552028129</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2146847662822466</v>
+        <v>0.4112375080644739</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>4.329286057409945</v>
+        <v>11.93801081193851</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1313737629808287</v>
+        <v>0.0668412409635124</v>
       </c>
       <c r="D16">
-        <v>0.08504687654055942</v>
+        <v>0.1654133970965717</v>
       </c>
       <c r="E16">
-        <v>0.1267068397392741</v>
+        <v>0.1657388108333997</v>
       </c>
       <c r="F16">
-        <v>2.604682019297172</v>
+        <v>6.342248522770404</v>
       </c>
       <c r="G16">
-        <v>2.768322137877874</v>
+        <v>7.36806264171662</v>
       </c>
       <c r="H16">
-        <v>1.848593757447588</v>
+        <v>3.563229387079161</v>
       </c>
       <c r="I16">
-        <v>2.343312420629076</v>
+        <v>5.317643748655797</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2097690306656119</v>
+        <v>0.3803728801888866</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>4.089429168003562</v>
+        <v>11.23323027560724</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1313805833460862</v>
+        <v>0.06520835336745279</v>
       </c>
       <c r="D17">
-        <v>0.08376315395827305</v>
+        <v>0.1570806254971018</v>
       </c>
       <c r="E17">
-        <v>0.1256378024306883</v>
+        <v>0.158320049921624</v>
       </c>
       <c r="F17">
-        <v>2.547512892194845</v>
+        <v>6.027713704394358</v>
       </c>
       <c r="G17">
-        <v>2.700040740622342</v>
+        <v>6.998631552417862</v>
       </c>
       <c r="H17">
-        <v>1.81941501844409</v>
+        <v>3.391271722490444</v>
       </c>
       <c r="I17">
-        <v>2.296718729053538</v>
+        <v>5.055536505698512</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2067921978942309</v>
+        <v>0.3620734546630047</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>3.94211849063862</v>
+        <v>10.80051555282949</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1313895328188295</v>
+        <v>0.06429301165059087</v>
       </c>
       <c r="D18">
-        <v>0.08303081680871571</v>
+        <v>0.1523969342158438</v>
       </c>
       <c r="E18">
-        <v>0.125030667322676</v>
+        <v>0.1541393106883788</v>
       </c>
       <c r="F18">
-        <v>2.514805620256681</v>
+        <v>5.850120827416958</v>
       </c>
       <c r="G18">
-        <v>2.660952385379346</v>
+        <v>6.790046343232348</v>
       </c>
       <c r="H18">
-        <v>1.80275480527331</v>
+        <v>3.294251907474575</v>
       </c>
       <c r="I18">
-        <v>2.270077198096743</v>
+        <v>4.907590926895125</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2050941298816582</v>
+        <v>0.3517556585047004</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>3.857331695637754</v>
+        <v>10.55149949033279</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1313934257489962</v>
+        <v>0.06398697832247535</v>
       </c>
       <c r="D19">
-        <v>0.08278388846079565</v>
+        <v>0.1508286210417253</v>
       </c>
       <c r="E19">
-        <v>0.1248264274964477</v>
+        <v>0.1527377126851839</v>
       </c>
       <c r="F19">
-        <v>2.503761328198323</v>
+        <v>5.790524917641449</v>
       </c>
       <c r="G19">
-        <v>2.647749312344217</v>
+        <v>6.720050338530939</v>
       </c>
       <c r="H19">
-        <v>1.797134891359406</v>
+        <v>3.261706252701515</v>
       </c>
       <c r="I19">
-        <v>2.261083781789097</v>
+        <v>4.857951479467374</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2045216068815421</v>
+        <v>0.3482956485641608</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>3.828614786364199</v>
+        <v>10.46716465870088</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1313793369484699</v>
+        <v>0.06537965712397664</v>
       </c>
       <c r="D20">
-        <v>0.08389918317325851</v>
+        <v>0.1579560712497567</v>
       </c>
       <c r="E20">
-        <v>0.1257508003500547</v>
+        <v>0.159100635232722</v>
       </c>
       <c r="F20">
-        <v>2.553580491914317</v>
+        <v>6.060844158548605</v>
       </c>
       <c r="G20">
-        <v>2.707290174009074</v>
+        <v>7.037543890156087</v>
       </c>
       <c r="H20">
-        <v>1.822508426783827</v>
+        <v>3.409376810802371</v>
       </c>
       <c r="I20">
-        <v>2.301662320176661</v>
+        <v>5.083139855111085</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2071076216461449</v>
+        <v>0.3639994366787533</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>3.95780600327754</v>
+        <v>10.84659223998074</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1313920974015872</v>
+        <v>0.07036120417930647</v>
       </c>
       <c r="D21">
-        <v>0.087718910842284</v>
+        <v>0.183309324293063</v>
       </c>
       <c r="E21">
-        <v>0.1289494875663806</v>
+        <v>0.1815849490927519</v>
       </c>
       <c r="F21">
-        <v>2.723071452625533</v>
+        <v>7.011716292170547</v>
       </c>
       <c r="G21">
-        <v>2.909572118790948</v>
+        <v>8.154427978663364</v>
       </c>
       <c r="H21">
-        <v>1.909233597299249</v>
+        <v>3.929733996234461</v>
       </c>
       <c r="I21">
-        <v>2.4399007043246</v>
+        <v>5.875852624601293</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2159660234533618</v>
+        <v>0.4194257976128881</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>4.391158149571083</v>
+        <v>12.11986155709377</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.131445322553823</v>
+        <v>0.07388631121766309</v>
       </c>
       <c r="D22">
-        <v>0.09027048411050487</v>
+        <v>0.2011897847979753</v>
       </c>
       <c r="E22">
-        <v>0.1311101069873573</v>
+        <v>0.1972928140959809</v>
       </c>
       <c r="F22">
-        <v>2.835449054683608</v>
+        <v>7.672526813305439</v>
       </c>
       <c r="G22">
-        <v>3.043482725880779</v>
+        <v>8.930746378119522</v>
       </c>
       <c r="H22">
-        <v>1.967031277234753</v>
+        <v>4.292121647396925</v>
       </c>
       <c r="I22">
-        <v>2.531693937023761</v>
+        <v>6.427262653467523</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2218842146923095</v>
+        <v>0.4581042145510565</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>4.67379181795809</v>
+        <v>12.95085643057962</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1314128019892706</v>
+        <v>0.07197701838408932</v>
       </c>
       <c r="D23">
-        <v>0.08890354055613159</v>
+        <v>0.1915072339546384</v>
       </c>
       <c r="E23">
-        <v>0.129950475753553</v>
+        <v>0.1888026380908698</v>
       </c>
       <c r="F23">
-        <v>2.775321754751843</v>
+        <v>7.3156802784072</v>
       </c>
       <c r="G23">
-        <v>2.971853034441551</v>
+        <v>8.511505665005757</v>
       </c>
       <c r="H23">
-        <v>1.936080023239697</v>
+        <v>4.09635374959197</v>
       </c>
       <c r="I23">
-        <v>2.482567838426519</v>
+        <v>6.129443334606265</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2187136442774289</v>
+        <v>0.4372017483080697</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>4.523002190001307</v>
+        <v>12.50744471934257</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1313798847847423</v>
+        <v>0.06530213829689302</v>
       </c>
       <c r="D24">
-        <v>0.08383766665208725</v>
+        <v>0.1575599525300078</v>
       </c>
       <c r="E24">
-        <v>0.125699690739598</v>
+        <v>0.1587474721536708</v>
       </c>
       <c r="F24">
-        <v>2.550836832179698</v>
+        <v>6.045855894551721</v>
       </c>
       <c r="G24">
-        <v>2.704012183990926</v>
+        <v>7.019939884745781</v>
       </c>
       <c r="H24">
-        <v>1.821109538856319</v>
+        <v>3.401185821375009</v>
       </c>
       <c r="I24">
-        <v>2.299426868926901</v>
+        <v>5.070651918750201</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2069649770088091</v>
+        <v>0.3631280746277099</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>3.950713976768498</v>
+        <v>10.82576172529139</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1315364887495889</v>
+        <v>0.05899695763543633</v>
       </c>
       <c r="D25">
-        <v>0.07860283156433923</v>
+        <v>0.1250190577711265</v>
       </c>
       <c r="E25">
-        <v>0.1214100718260696</v>
+        <v>0.1295569656715898</v>
       </c>
       <c r="F25">
-        <v>2.315352257043571</v>
+        <v>4.800164514386609</v>
       </c>
       <c r="G25">
-        <v>2.422153262617257</v>
+        <v>5.556812012974376</v>
       </c>
       <c r="H25">
-        <v>1.70176852843656</v>
+        <v>2.721813561658678</v>
       </c>
       <c r="I25">
-        <v>2.107894272092096</v>
+        <v>4.033634984873402</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1948305746392549</v>
+        <v>0.290985518769034</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>3.331249627311138</v>
+        <v>9.00683856119241</v>
       </c>
       <c r="O25">
         <v>0</v>
